--- a/Data/Processed/eigen_U2014.xlsx
+++ b/Data/Processed/eigen_U2014.xlsx
@@ -1,21 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/Factor_Analysis_Digital_Divide/Data/Processed/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B41F7-7158-AC4F-AAF3-481429CE23C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>eigenvalue</t>
+  </si>
+  <si>
+    <t>variance.percent</t>
+  </si>
+  <si>
+    <t>cumulative.variance.percent</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +83,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +135,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +169,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +204,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,181 +380,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>eigenvalue</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>variance.percent</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cumulative.variance.percent</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.25223</v>
+        <v>0.25223000000000001</v>
       </c>
       <c r="B2">
-        <v>25.22271</v>
+        <v>25.222709999999999</v>
       </c>
       <c r="C2">
-        <v>25.22271</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>25.222709999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.12882</v>
+        <v>0.12881999999999999</v>
       </c>
       <c r="B3">
-        <v>12.88239</v>
+        <v>12.882389999999999</v>
       </c>
       <c r="C3">
         <v>38.1051</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.09852</v>
+        <v>9.8519999999999996E-2</v>
       </c>
       <c r="B4">
-        <v>9.852069999999999</v>
+        <v>9.8520699999999994</v>
       </c>
       <c r="C4">
-        <v>47.95717</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>47.957169999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.08749</v>
+        <v>8.7489999999999998E-2</v>
       </c>
       <c r="B5">
-        <v>8.74943</v>
+        <v>8.7494300000000003</v>
       </c>
       <c r="C5">
-        <v>56.7066</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>56.706600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.08146</v>
+        <v>8.1460000000000005E-2</v>
       </c>
       <c r="B6">
-        <v>8.14597</v>
+        <v>8.1459700000000002</v>
       </c>
       <c r="C6">
-        <v>64.85258</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>64.852580000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.06664</v>
+        <v>6.6640000000000005E-2</v>
       </c>
       <c r="B7">
-        <v>6.66384</v>
+        <v>6.6638400000000004</v>
       </c>
       <c r="C7">
-        <v>71.51642</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>71.516419999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.05639</v>
+        <v>5.6390000000000003E-2</v>
       </c>
       <c r="B8">
         <v>5.6391</v>
       </c>
       <c r="C8">
-        <v>77.15552</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>77.155519999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.04866</v>
+        <v>4.8660000000000002E-2</v>
       </c>
       <c r="B9">
-        <v>4.86633</v>
+        <v>4.8663299999999996</v>
       </c>
       <c r="C9">
-        <v>82.02185</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>82.021850000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.04576</v>
+        <v>4.5760000000000002E-2</v>
       </c>
       <c r="B10">
-        <v>4.57586</v>
+        <v>4.5758599999999996</v>
       </c>
       <c r="C10">
-        <v>86.59771000000001</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>86.597710000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0.04267</v>
+        <v>4.267E-2</v>
       </c>
       <c r="B11">
-        <v>4.26733</v>
+        <v>4.2673300000000003</v>
       </c>
       <c r="C11">
-        <v>90.86503</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>90.865030000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0.03986</v>
+        <v>3.986E-2</v>
       </c>
       <c r="B12">
-        <v>3.98587</v>
+        <v>3.9858699999999998</v>
       </c>
       <c r="C12">
-        <v>94.85091</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>94.850909999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>0.02854</v>
+        <v>2.8539999999999999E-2</v>
       </c>
       <c r="B13">
-        <v>2.85367</v>
+        <v>2.8536700000000002</v>
       </c>
       <c r="C13">
-        <v>97.70458000000001</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>97.704580000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>0.02295</v>
+        <v>2.2950000000000002E-2</v>
       </c>
       <c r="B14">
         <v>2.29542</v>
       </c>
       <c r="C14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
         <v>100</v>
       </c>
     </row>

--- a/Data/Processed/eigen_U2014.xlsx
+++ b/Data/Processed/eigen_U2014.xlsx
@@ -1,41 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/Factor_Analysis_Digital_Divide/Data/Processed/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5B41F7-7158-AC4F-AAF3-481429CE23C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>eigenvalue</t>
-  </si>
-  <si>
-    <t>variance.percent</t>
-  </si>
-  <si>
-    <t>cumulative.variance.percent</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -169,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -380,171 +350,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>eigenvalue</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>variance.percent</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cumulative.variance.percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>0.25223000000000001</v>
+        <v>0.25223</v>
       </c>
       <c r="B2">
-        <v>25.222709999999999</v>
+        <v>25.22271</v>
       </c>
       <c r="C2">
-        <v>25.222709999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25.22271</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
-        <v>0.12881999999999999</v>
+        <v>0.12882</v>
       </c>
       <c r="B3">
-        <v>12.882389999999999</v>
+        <v>12.88239</v>
       </c>
       <c r="C3">
         <v>38.1051</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4">
-        <v>9.8519999999999996E-2</v>
+        <v>0.09852</v>
       </c>
       <c r="B4">
-        <v>9.8520699999999994</v>
+        <v>9.852069999999999</v>
       </c>
       <c r="C4">
-        <v>47.957169999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47.95717</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
-        <v>8.7489999999999998E-2</v>
+        <v>0.08749</v>
       </c>
       <c r="B5">
-        <v>8.7494300000000003</v>
+        <v>8.74943</v>
       </c>
       <c r="C5">
-        <v>56.706600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56.7066</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
-        <v>8.1460000000000005E-2</v>
+        <v>0.08146</v>
       </c>
       <c r="B6">
-        <v>8.1459700000000002</v>
+        <v>8.14597</v>
       </c>
       <c r="C6">
-        <v>64.852580000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64.85258</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
-        <v>6.6640000000000005E-2</v>
+        <v>0.06664</v>
       </c>
       <c r="B7">
-        <v>6.6638400000000004</v>
+        <v>6.66384</v>
       </c>
       <c r="C7">
-        <v>71.516419999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>71.51642</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
-        <v>5.6390000000000003E-2</v>
+        <v>0.05639</v>
       </c>
       <c r="B8">
         <v>5.6391</v>
       </c>
       <c r="C8">
-        <v>77.155519999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77.15552</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
-        <v>4.8660000000000002E-2</v>
+        <v>0.04866</v>
       </c>
       <c r="B9">
-        <v>4.8663299999999996</v>
+        <v>4.86633</v>
       </c>
       <c r="C9">
-        <v>82.021850000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82.02185</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
-        <v>4.5760000000000002E-2</v>
+        <v>0.04576</v>
       </c>
       <c r="B10">
-        <v>4.5758599999999996</v>
+        <v>4.57586</v>
       </c>
       <c r="C10">
-        <v>86.597710000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86.59771000000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
-        <v>4.267E-2</v>
+        <v>0.04267</v>
       </c>
       <c r="B11">
-        <v>4.2673300000000003</v>
+        <v>4.26733</v>
       </c>
       <c r="C11">
-        <v>90.865030000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90.86503</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
-        <v>3.986E-2</v>
+        <v>0.03986</v>
       </c>
       <c r="B12">
-        <v>3.9858699999999998</v>
+        <v>3.98587</v>
       </c>
       <c r="C12">
-        <v>94.850909999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94.85091</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
-        <v>2.8539999999999999E-2</v>
+        <v>0.02854</v>
       </c>
       <c r="B13">
-        <v>2.8536700000000002</v>
+        <v>2.85367</v>
       </c>
       <c r="C13">
-        <v>97.704580000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97.70458000000001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
-        <v>2.2950000000000002E-2</v>
+        <v>0.02295</v>
       </c>
       <c r="B14">
         <v>2.29542</v>
       </c>
       <c r="C14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>100</v>
       </c>
     </row>
